--- a/data/trans_camb/P5_7-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-3,16</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 1,09</t>
+          <t>-24,67; 0,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,46</t>
+          <t>-3,9; 2,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,47</t>
+          <t>-11,92; 0,37</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>-3,23%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 1,12</t>
+          <t>-26,09; 0,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,5</t>
+          <t>-3,96; 2,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 0,48</t>
+          <t>-12,23; 0,38</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,42</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,74</t>
+          <t>-3,76; 3,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,06</t>
+          <t>-3,9; 1,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,51</t>
+          <t>-2,64; 1,8</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>-0,43%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,85</t>
+          <t>-3,8; 4,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,05</t>
+          <t>-3,91; 1,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,55</t>
+          <t>-2,66; 1,85</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,39</t>
+          <t>-11,38; 10,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,79</t>
+          <t>-5,83; 4,46</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>-0,18%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 4,6</t>
+          <t>-11,82; 11,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,83</t>
+          <t>-6,01; 4,6</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 0,66</t>
+          <t>-12,64; 0,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,91</t>
+          <t>-2,55; 1,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,2</t>
+          <t>-6,98; 0,27</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-1,76%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,68</t>
+          <t>-12,74; 0,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,93</t>
+          <t>-2,59; 1,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,2</t>
+          <t>-7,11; 0,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_7-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.97650394484751</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3253388533764001</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.450512092455881</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-24,67; 0,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 2,59</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,92; 0,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.51642341971932</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.529819926013005</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.434940559919546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,42%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,52%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,23%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.8168018069322116</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.758859558564041</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.5440180924295263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-26,09; 0,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 2,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,23; 0,38</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.05077087309628352</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.003345217324705261</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02510675221124783</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2041483046212544</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.03582947052869959</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.09621672206836479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 3,9</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 1,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 1,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.007991624245074</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.02860238340599194</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.005474505463279751</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,03%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,77%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.111383407316491</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.8002851159612301</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.9656662851887265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 4,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 1,43</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 1,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.249597904928788</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.140919309666902</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.286497438011081</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.88486203093801</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.315904352528682</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.386907642299121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,38; 10,08</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 4,46</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.01136913074041059</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.008088090076794284</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.009814520635374442</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,32%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,18%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.08414025868365382</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.04158318512117253</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.04354548194722602</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,82; 11,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 4,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.02977757635810463</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.01331964519299547</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01416558944683369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,201 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.334327071504838</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.411223519844707</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 0,75</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 1,63</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 0,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="n">
+        <v>-18.42427093206761</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.83772161276547</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-3,1%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,6%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,76%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="n">
+        <v>7.862457685783109</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.138914727389126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; 0,76</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 1,68</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 0,27</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.02460512703434925</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.01447858675233342</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-0.1945078673979235</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1122466037367629</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>0.08496300438126911</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.03213071942650907</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.872724002563232</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.7365678896477212</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.734288698859698</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-10.5589277856783</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.027002181177944</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.687280014935356</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.5964227152083847</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.417392010949976</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1922133141965895</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02927327232565118</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.007538292597259014</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.01771350773345224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1074108610456471</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.03073828491775389</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.05819320223356177</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.006100842389584017</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.01439529117119769</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.001932212144309666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +977,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
